--- a/report/assets/database/Types/LogicModelTypes.xlsx
+++ b/report/assets/database/Types/LogicModelTypes.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="68">
   <si>
     <t>Таблица - DE_DOC_OrderCreationInventoryCommission</t>
   </si>
@@ -145,6 +145,12 @@
     <t>Отчество</t>
   </si>
   <si>
+    <t>de_employeePositionId</t>
+  </si>
+  <si>
+    <t>Должность сотрудника</t>
+  </si>
+  <si>
     <t>Таблица - DE_TAB_ListInventoryCommission</t>
   </si>
   <si>
@@ -164,6 +170,9 @@
   </si>
   <si>
     <t>Таблица - DE_TAB_NomenclatureInventList</t>
+  </si>
+  <si>
+    <t>de_inventoryListId</t>
   </si>
   <si>
     <t>Код номенклатуры</t>
@@ -986,510 +995,516 @@
       <c r="H27" s="7"/>
     </row>
     <row r="28">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
+      <c r="A28" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="8"/>
+      <c r="F28" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="7"/>
+      <c r="H28" s="5" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B31" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C31" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D31" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E31" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F31" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="G31" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H30" s="4" t="s">
+      <c r="H31" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="5" t="s">
+    <row r="32">
+      <c r="A32" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B32" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C32" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D32" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E31" s="6" t="str">
+      <c r="E32" s="6" t="str">
         <f>"+"</f>
         <v>+</v>
       </c>
-      <c r="F31" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="7"/>
-      <c r="H31" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" s="8"/>
       <c r="F32" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G32" s="7"/>
-      <c r="H32" s="7" t="str">
-        <f>"=128"</f>
-        <v>=128</v>
+      <c r="H32" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G33" s="7"/>
-      <c r="H33" s="5" t="s">
+      <c r="H33" s="7" t="str">
+        <f>"=128"</f>
+        <v>=128</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" s="8"/>
+      <c r="F34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="7"/>
+      <c r="H34" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-    </row>
     <row r="35">
-      <c r="A35" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
     </row>
     <row r="36">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B37" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C37" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D37" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E37" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="F37" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G36" s="4" t="s">
+      <c r="G37" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H36" s="4" t="s">
+      <c r="H37" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="5" t="s">
+    <row r="38">
+      <c r="A38" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B38" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C38" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D38" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E37" s="6" t="str">
+      <c r="E38" s="6" t="str">
         <f>"+"</f>
         <v>+</v>
       </c>
-      <c r="F37" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" s="7"/>
-      <c r="H37" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E38" s="8"/>
       <c r="F38" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
+      <c r="H38" s="5" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
+      <c r="A39" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="8"/>
+      <c r="F39" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
     </row>
     <row r="40">
-      <c r="A40" s="3" t="s">
-        <v>49</v>
-      </c>
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
     </row>
     <row r="41">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B42" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C42" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D42" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E42" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="F42" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G41" s="4" t="s">
+      <c r="G42" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H41" s="4" t="s">
+      <c r="H42" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="5" t="s">
+    <row r="43">
+      <c r="A43" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B43" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C43" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D43" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E42" s="6"/>
-      <c r="F42" s="5" t="s">
+      <c r="E43" s="6"/>
+      <c r="F43" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7" t="str">
+      <c r="G43" s="7"/>
+      <c r="H43" s="7" t="str">
         <f>"=128"</f>
         <v>=128</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E43" s="8"/>
-      <c r="F43" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-    </row>
     <row r="44">
       <c r="A44" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E44" s="8"/>
       <c r="F44" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G44" s="5" t="s">
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" s="8"/>
+      <c r="F45" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H44" s="7"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
+      <c r="H45" s="7"/>
     </row>
     <row r="46">
-      <c r="A46" s="3" t="s">
-        <v>50</v>
-      </c>
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
     </row>
     <row r="47">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B48" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C48" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D48" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="E48" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F47" s="4" t="s">
+      <c r="F48" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G47" s="4" t="s">
+      <c r="G48" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H47" s="4" t="s">
+      <c r="H48" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="5" t="s">
+    <row r="49">
+      <c r="A49" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B49" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C49" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D49" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E48" s="6" t="str">
+      <c r="E49" s="6" t="str">
         <f>"+"</f>
         <v>+</v>
       </c>
-      <c r="F48" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G48" s="7"/>
-      <c r="H48" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E49" s="8"/>
       <c r="F49" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G49" s="7"/>
-      <c r="H49" s="7" t="str">
-        <f>"=128"</f>
-        <v>=128</v>
+      <c r="H49" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="5" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E50" s="8"/>
       <c r="F50" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G50" s="7"/>
-      <c r="H50" s="5" t="s">
+      <c r="H50" s="7" t="str">
+        <f>"=128"</f>
+        <v>=128</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E51" s="8"/>
+      <c r="F51" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" s="7"/>
+      <c r="H51" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-    </row>
     <row r="52">
-      <c r="A52" s="3" t="s">
-        <v>52</v>
-      </c>
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
     </row>
     <row r="53">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B54" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C54" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D54" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="E54" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F53" s="4" t="s">
+      <c r="F54" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G53" s="4" t="s">
+      <c r="G54" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H53" s="4" t="s">
+      <c r="H54" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="5" t="s">
+    <row r="55">
+      <c r="A55" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B55" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C55" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="D55" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E54" s="6" t="str">
+      <c r="E55" s="6" t="str">
         <f>"+"</f>
         <v>+</v>
       </c>
-      <c r="F54" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G54" s="7"/>
-      <c r="H54" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C55" s="7"/>
-      <c r="D55" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E55" s="8"/>
       <c r="F55" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
+      <c r="H55" s="5" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="5" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="5" t="s">
         <v>56</v>
       </c>
       <c r="E56" s="8"/>
-      <c r="F56" s="5"/>
+      <c r="F56" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="G56" s="7"/>
       <c r="H56" s="7"/>
     </row>
@@ -1500,27 +1515,21 @@
       <c r="B57" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C57" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="C57" s="7"/>
       <c r="D57" s="5" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="E57" s="8"/>
-      <c r="F57" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="F57" s="5"/>
       <c r="G57" s="7"/>
-      <c r="H57" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="H57" s="7"/>
     </row>
     <row r="58">
       <c r="A58" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>23</v>
@@ -1538,182 +1547,194 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
+      <c r="A59" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E59" s="8"/>
+      <c r="F59" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G59" s="7"/>
+      <c r="H59" s="5" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="3" t="s">
-        <v>61</v>
-      </c>
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
     </row>
     <row r="61">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B62" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C62" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="D62" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E61" s="4" t="s">
+      <c r="E62" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F61" s="4" t="s">
+      <c r="F62" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G61" s="4" t="s">
+      <c r="G62" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H61" s="4" t="s">
+      <c r="H62" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="5" t="s">
+    <row r="63">
+      <c r="A63" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B63" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C63" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="D63" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E62" s="6" t="str">
+      <c r="E63" s="6" t="str">
         <f>"+"</f>
         <v>+</v>
       </c>
-      <c r="F62" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G62" s="7"/>
-      <c r="H62" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C63" s="7"/>
-      <c r="D63" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E63" s="8"/>
       <c r="F63" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
+      <c r="H63" s="5" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
+      <c r="A64" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C64" s="7"/>
+      <c r="D64" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E64" s="8"/>
+      <c r="F64" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
     </row>
     <row r="65">
-      <c r="A65" s="3" t="s">
-        <v>63</v>
-      </c>
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
     </row>
     <row r="66">
-      <c r="A66" s="4" t="s">
+      <c r="A66" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B67" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C67" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="D67" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E66" s="4" t="s">
+      <c r="E67" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F66" s="4" t="s">
+      <c r="F67" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G66" s="4" t="s">
+      <c r="G67" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H66" s="4" t="s">
+      <c r="H67" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="5" t="s">
+    <row r="68">
+      <c r="A68" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B68" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C68" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D67" s="5" t="s">
+      <c r="D68" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E67" s="6" t="str">
+      <c r="E68" s="6" t="str">
         <f>"+"</f>
         <v>+</v>
       </c>
-      <c r="F67" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G67" s="7"/>
-      <c r="H67" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C68" s="7"/>
-      <c r="D68" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E68" s="8"/>
       <c r="F68" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G68" s="7"/>
-      <c r="H68" s="7"/>
+      <c r="H68" s="5" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="69">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
+      <c r="A69" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C69" s="7"/>
+      <c r="D69" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E69" s="8"/>
+      <c r="F69" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
     </row>
     <row r="70">
       <c r="A70" s="1"/>
@@ -11055,19 +11076,29 @@
       <c r="G1003" s="1"/>
       <c r="H1003" s="1"/>
     </row>
+    <row r="1004">
+      <c r="A1004" s="1"/>
+      <c r="B1004" s="1"/>
+      <c r="C1004" s="1"/>
+      <c r="D1004" s="1"/>
+      <c r="E1004" s="2"/>
+      <c r="F1004" s="1"/>
+      <c r="G1004" s="1"/>
+      <c r="H1004" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A46:H46"/>
-    <mergeCell ref="A60:H60"/>
-    <mergeCell ref="A65:H65"/>
-    <mergeCell ref="A52:H52"/>
+    <mergeCell ref="A47:H47"/>
+    <mergeCell ref="A53:H53"/>
+    <mergeCell ref="A61:H61"/>
+    <mergeCell ref="A66:H66"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A12:H12"/>
     <mergeCell ref="A17:H17"/>
     <mergeCell ref="A22:H22"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="A35:H35"/>
-    <mergeCell ref="A40:H40"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="A36:H36"/>
+    <mergeCell ref="A41:H41"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/report/assets/database/Types/LogicModelTypes.xlsx
+++ b/report/assets/database/Types/LogicModelTypes.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="81">
   <si>
     <t xml:space="preserve">Таблица - DE_DOC_OrderCreationInventoryCommission</t>
   </si>
@@ -100,7 +100,7 @@
     <t xml:space="preserve">&gt;0</t>
   </si>
   <si>
-    <t xml:space="preserve">de_storageLocationId</t>
+    <t xml:space="preserve">de_storageLocationsId</t>
   </si>
   <si>
     <t xml:space="preserve">Место хранения</t>
@@ -157,7 +157,7 @@
     <t xml:space="preserve">de_positionsId</t>
   </si>
   <si>
-    <t xml:space="preserve">Должность</t>
+    <t xml:space="preserve">Должность сотрудника</t>
   </si>
   <si>
     <t xml:space="preserve">Таблица - DE_TAB_ListInventoryCommission</t>
@@ -166,13 +166,13 @@
     <t xml:space="preserve">de_orderCreationId</t>
   </si>
   <si>
-    <t xml:space="preserve">de_employeeId</t>
+    <t xml:space="preserve">de_employeesId</t>
   </si>
   <si>
     <t xml:space="preserve">Код сотрудника</t>
   </si>
   <si>
-    <t xml:space="preserve">Таблица – DE_CTL_Positions</t>
+    <t xml:space="preserve">Таблица - DE_CTL_Positions</t>
   </si>
   <si>
     <t xml:space="preserve">Таблица - DE_DOC_InventoryList</t>
@@ -184,7 +184,46 @@
     <t xml:space="preserve">de_inventoryListId</t>
   </si>
   <si>
+    <t xml:space="preserve">de_nomenclaturesId</t>
+  </si>
+  <si>
     <t xml:space="preserve">Код номенклатуры</t>
+  </si>
+  <si>
+    <t xml:space="preserve">de_cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Цена</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLOAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;=0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">de_accountingQuantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кол-во по данным бух. учета</t>
+  </si>
+  <si>
+    <t xml:space="preserve">de_actualQuantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кол-во фактическое</t>
+  </si>
+  <si>
+    <t xml:space="preserve">de_shortageQuantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кол-во недостачи</t>
+  </si>
+  <si>
+    <t xml:space="preserve">de_surplusQuantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кол-во излишков</t>
   </si>
   <si>
     <t xml:space="preserve">Таблица - DE_CTL_Nomenclatures</t>
@@ -233,7 +272,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -266,6 +305,13 @@
     <font>
       <b val="true"/>
       <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="0"/>
@@ -321,7 +367,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -354,6 +400,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -373,20 +423,20 @@
   </sheetPr>
   <dimension ref="A1:H1004"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H28" activeCellId="0" sqref="A22:H28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H74" activeCellId="0" sqref="A71:H74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="5.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="2.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="6.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="3.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.12"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1331,10 +1381,10 @@
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="5" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>23</v>
@@ -1352,221 +1402,226 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
+      <c r="A52" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52" s="7"/>
+      <c r="D52" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E52" s="6"/>
+      <c r="F52" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52" s="7"/>
+      <c r="H52" s="5" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
+      <c r="A53" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C53" s="7"/>
+      <c r="D53" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E53" s="6"/>
+      <c r="F53" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G53" s="7"/>
+      <c r="H53" s="5" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>8</v>
+      <c r="A54" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C54" s="7"/>
+      <c r="D54" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E54" s="6"/>
+      <c r="F54" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G54" s="7"/>
+      <c r="H54" s="5" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="A55" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C55" s="7"/>
       <c r="D55" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E55" s="6" t="str">
-        <f aca="false">"+"</f>
-        <v>+</v>
-      </c>
+      <c r="E55" s="6"/>
       <c r="F55" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G55" s="7"/>
       <c r="H55" s="5" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>35</v>
+      <c r="A56" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>67</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="5" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
+      <c r="H56" s="5" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C57" s="7"/>
-      <c r="D57" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E57" s="6"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D58" s="5" t="s">
+      <c r="A58" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+    </row>
+    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E58" s="6"/>
-      <c r="F58" s="5" t="s">
+      <c r="E60" s="6" t="str">
+        <f aca="false">"+"</f>
+        <v>+</v>
+      </c>
+      <c r="F60" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G58" s="7"/>
-      <c r="H58" s="5" t="s">
+      <c r="G60" s="7"/>
+      <c r="H60" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E59" s="6"/>
-      <c r="F59" s="5" t="s">
+    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C61" s="7"/>
+      <c r="D61" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E61" s="6"/>
+      <c r="F61" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G59" s="7"/>
-      <c r="H59" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-    </row>
-    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G62" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H62" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="A62" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C62" s="7"/>
+      <c r="D62" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E62" s="6"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="5" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E63" s="6" t="str">
-        <f aca="false">"+"</f>
-        <v>+</v>
-      </c>
+      <c r="E63" s="6"/>
       <c r="F63" s="5" t="s">
         <v>13</v>
       </c>
@@ -1577,21 +1632,25 @@
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="5" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C64" s="7"/>
+        <v>76</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="D64" s="5" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="E64" s="6"/>
       <c r="F64" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
+      <c r="H64" s="5" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1"/>
@@ -1605,7 +1664,7 @@
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="3" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -1675,7 +1734,7 @@
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="5" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="E69" s="6"/>
       <c r="F69" s="5" t="s">
@@ -1695,44 +1754,85 @@
       <c r="H70" s="1"/>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
+      <c r="A71" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
+      <c r="A72" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
+      <c r="A73" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E73" s="6" t="str">
+        <f aca="false">"+"</f>
+        <v>+</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G73" s="7"/>
+      <c r="H73" s="5" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
+      <c r="A74" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C74" s="7"/>
+      <c r="D74" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E74" s="6"/>
+      <c r="F74" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1"/>
@@ -11044,9 +11144,9 @@
     <mergeCell ref="A36:H36"/>
     <mergeCell ref="A41:H41"/>
     <mergeCell ref="A47:H47"/>
-    <mergeCell ref="A53:H53"/>
-    <mergeCell ref="A61:H61"/>
+    <mergeCell ref="A58:H58"/>
     <mergeCell ref="A66:H66"/>
+    <mergeCell ref="A71:H71"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
